--- a/Data Set 1.xlsx
+++ b/Data Set 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiandamsgaard/Dropbox/Projects/Air-breathing review_full/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69134D83-9E80-E847-BE31-604C65CCDF37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6DD9D-3ECF-F947-AC0A-D34A96946851}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2220" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2220" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -2148,9 +2148,6 @@
   </si>
   <si>
     <t>Lepadogaster bimaculatus</t>
-  </si>
-  <si>
-    <t>All species within Symbranchidae are included, as Graham noted that they are all air-breathers.</t>
   </si>
   <si>
     <t>Moritz and Linsenmair: The air‐breathing behaviour of Brevimyrus niger (Osteoglossomorpha, Mormyridae)</t>
@@ -2253,6 +2250,9 @@
   </si>
   <si>
     <t>Mouth</t>
+  </si>
+  <si>
+    <t>All species within Synbranchidae are included, as Graham noted that they are all air-breathers.</t>
   </si>
 </sst>
 </file>
@@ -3141,9 +3141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G685"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D641" sqref="D641:D662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3780,13 +3780,13 @@
         <v>301</v>
       </c>
       <c r="B55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D55" t="s">
+        <v>714</v>
+      </c>
+      <c r="E55" t="s">
         <v>715</v>
-      </c>
-      <c r="E55" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3794,13 +3794,13 @@
         <v>305</v>
       </c>
       <c r="B56" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D56" t="s">
+        <v>714</v>
+      </c>
+      <c r="E56" t="s">
         <v>715</v>
-      </c>
-      <c r="E56" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3808,13 +3808,13 @@
         <v>307</v>
       </c>
       <c r="B57" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D57" t="s">
+        <v>714</v>
+      </c>
+      <c r="E57" t="s">
         <v>715</v>
-      </c>
-      <c r="E57" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3822,13 +3822,13 @@
         <v>306</v>
       </c>
       <c r="B58" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D58" t="s">
+        <v>714</v>
+      </c>
+      <c r="E58" t="s">
         <v>715</v>
-      </c>
-      <c r="E58" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3836,13 +3836,13 @@
         <v>303</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D59" t="s">
+        <v>714</v>
+      </c>
+      <c r="E59" t="s">
         <v>715</v>
-      </c>
-      <c r="E59" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3850,13 +3850,13 @@
         <v>304</v>
       </c>
       <c r="B60" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D60" t="s">
+        <v>714</v>
+      </c>
+      <c r="E60" t="s">
         <v>715</v>
-      </c>
-      <c r="E60" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3864,13 +3864,13 @@
         <v>302</v>
       </c>
       <c r="B61" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D61" t="s">
+        <v>714</v>
+      </c>
+      <c r="E61" t="s">
         <v>715</v>
-      </c>
-      <c r="E61" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3878,13 +3878,13 @@
         <v>308</v>
       </c>
       <c r="B62" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D62" t="s">
+        <v>714</v>
+      </c>
+      <c r="E62" t="s">
         <v>715</v>
-      </c>
-      <c r="E62" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3892,13 +3892,13 @@
         <v>325</v>
       </c>
       <c r="B63" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D63" t="s">
+        <v>714</v>
+      </c>
+      <c r="E63" t="s">
         <v>715</v>
-      </c>
-      <c r="E63" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3906,13 +3906,13 @@
         <v>322</v>
       </c>
       <c r="B64" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D64" t="s">
+        <v>714</v>
+      </c>
+      <c r="E64" t="s">
         <v>715</v>
-      </c>
-      <c r="E64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3920,13 +3920,13 @@
         <v>324</v>
       </c>
       <c r="B65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D65" t="s">
+        <v>714</v>
+      </c>
+      <c r="E65" t="s">
         <v>715</v>
-      </c>
-      <c r="E65" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3934,13 +3934,13 @@
         <v>321</v>
       </c>
       <c r="B66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D66" t="s">
+        <v>714</v>
+      </c>
+      <c r="E66" t="s">
         <v>715</v>
-      </c>
-      <c r="E66" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3948,13 +3948,13 @@
         <v>326</v>
       </c>
       <c r="B67" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D67" t="s">
+        <v>714</v>
+      </c>
+      <c r="E67" t="s">
         <v>715</v>
-      </c>
-      <c r="E67" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3962,13 +3962,13 @@
         <v>320</v>
       </c>
       <c r="B68" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D68" t="s">
+        <v>714</v>
+      </c>
+      <c r="E68" t="s">
         <v>715</v>
-      </c>
-      <c r="E68" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,13 +3976,13 @@
         <v>334</v>
       </c>
       <c r="B69" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D69" t="s">
+        <v>714</v>
+      </c>
+      <c r="E69" t="s">
         <v>715</v>
-      </c>
-      <c r="E69" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3990,13 +3990,13 @@
         <v>350</v>
       </c>
       <c r="B70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D70" t="s">
+        <v>714</v>
+      </c>
+      <c r="E70" t="s">
         <v>715</v>
-      </c>
-      <c r="E70" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -4004,13 +4004,13 @@
         <v>335</v>
       </c>
       <c r="B71" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D71" t="s">
+        <v>714</v>
+      </c>
+      <c r="E71" t="s">
         <v>715</v>
-      </c>
-      <c r="E71" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -4018,13 +4018,13 @@
         <v>342</v>
       </c>
       <c r="B72" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D72" t="s">
+        <v>714</v>
+      </c>
+      <c r="E72" t="s">
         <v>715</v>
-      </c>
-      <c r="E72" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4032,13 +4032,13 @@
         <v>345</v>
       </c>
       <c r="B73" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D73" t="s">
+        <v>714</v>
+      </c>
+      <c r="E73" t="s">
         <v>715</v>
-      </c>
-      <c r="E73" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4046,13 +4046,13 @@
         <v>341</v>
       </c>
       <c r="B74" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D74" t="s">
+        <v>714</v>
+      </c>
+      <c r="E74" t="s">
         <v>715</v>
-      </c>
-      <c r="E74" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4060,13 +4060,13 @@
         <v>346</v>
       </c>
       <c r="B75" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D75" t="s">
+        <v>714</v>
+      </c>
+      <c r="E75" t="s">
         <v>715</v>
-      </c>
-      <c r="E75" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4074,13 +4074,13 @@
         <v>348</v>
       </c>
       <c r="B76" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D76" t="s">
+        <v>714</v>
+      </c>
+      <c r="E76" t="s">
         <v>715</v>
-      </c>
-      <c r="E76" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4088,13 +4088,13 @@
         <v>338</v>
       </c>
       <c r="B77" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D77" t="s">
+        <v>714</v>
+      </c>
+      <c r="E77" t="s">
         <v>715</v>
-      </c>
-      <c r="E77" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4102,13 +4102,13 @@
         <v>347</v>
       </c>
       <c r="B78" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D78" t="s">
+        <v>714</v>
+      </c>
+      <c r="E78" t="s">
         <v>715</v>
-      </c>
-      <c r="E78" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4116,13 +4116,13 @@
         <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D79" t="s">
+        <v>714</v>
+      </c>
+      <c r="E79" t="s">
         <v>715</v>
-      </c>
-      <c r="E79" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4130,13 +4130,13 @@
         <v>339</v>
       </c>
       <c r="B80" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D80" t="s">
+        <v>714</v>
+      </c>
+      <c r="E80" t="s">
         <v>715</v>
-      </c>
-      <c r="E80" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4144,13 +4144,13 @@
         <v>349</v>
       </c>
       <c r="B81" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D81" t="s">
+        <v>714</v>
+      </c>
+      <c r="E81" t="s">
         <v>715</v>
-      </c>
-      <c r="E81" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4158,13 +4158,13 @@
         <v>344</v>
       </c>
       <c r="B82" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D82" t="s">
+        <v>714</v>
+      </c>
+      <c r="E82" t="s">
         <v>715</v>
-      </c>
-      <c r="E82" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4172,13 +4172,13 @@
         <v>343</v>
       </c>
       <c r="B83" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D83" t="s">
+        <v>714</v>
+      </c>
+      <c r="E83" t="s">
         <v>715</v>
-      </c>
-      <c r="E83" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4186,13 +4186,13 @@
         <v>340</v>
       </c>
       <c r="B84" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D84" t="s">
+        <v>714</v>
+      </c>
+      <c r="E84" t="s">
         <v>715</v>
-      </c>
-      <c r="E84" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4200,13 +4200,13 @@
         <v>367</v>
       </c>
       <c r="B85" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D85" t="s">
+        <v>714</v>
+      </c>
+      <c r="E85" t="s">
         <v>715</v>
-      </c>
-      <c r="E85" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4214,13 +4214,13 @@
         <v>331</v>
       </c>
       <c r="B86" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D86" t="s">
+        <v>714</v>
+      </c>
+      <c r="E86" t="s">
         <v>715</v>
-      </c>
-      <c r="E86" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4228,13 +4228,13 @@
         <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D87" t="s">
+        <v>714</v>
+      </c>
+      <c r="E87" t="s">
         <v>715</v>
-      </c>
-      <c r="E87" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4242,13 +4242,13 @@
         <v>386</v>
       </c>
       <c r="B88" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D88" t="s">
+        <v>714</v>
+      </c>
+      <c r="E88" t="s">
         <v>715</v>
-      </c>
-      <c r="E88" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4256,13 +4256,13 @@
         <v>377</v>
       </c>
       <c r="B89" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D89" t="s">
+        <v>714</v>
+      </c>
+      <c r="E89" t="s">
         <v>715</v>
-      </c>
-      <c r="E89" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4270,13 +4270,13 @@
         <v>327</v>
       </c>
       <c r="B90" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D90" t="s">
+        <v>714</v>
+      </c>
+      <c r="E90" t="s">
         <v>715</v>
-      </c>
-      <c r="E90" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4284,13 +4284,13 @@
         <v>299</v>
       </c>
       <c r="B91" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D91" t="s">
+        <v>714</v>
+      </c>
+      <c r="E91" t="s">
         <v>715</v>
-      </c>
-      <c r="E91" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4298,13 +4298,13 @@
         <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D92" t="s">
+        <v>714</v>
+      </c>
+      <c r="E92" t="s">
         <v>715</v>
-      </c>
-      <c r="E92" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4312,13 +4312,13 @@
         <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D93" t="s">
+        <v>714</v>
+      </c>
+      <c r="E93" t="s">
         <v>715</v>
-      </c>
-      <c r="E93" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4326,13 +4326,13 @@
         <v>384</v>
       </c>
       <c r="B94" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D94" t="s">
+        <v>714</v>
+      </c>
+      <c r="E94" t="s">
         <v>715</v>
-      </c>
-      <c r="E94" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,13 +4340,13 @@
         <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D95" t="s">
+        <v>714</v>
+      </c>
+      <c r="E95" t="s">
         <v>715</v>
-      </c>
-      <c r="E95" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4354,13 +4354,13 @@
         <v>330</v>
       </c>
       <c r="B96" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D96" t="s">
+        <v>714</v>
+      </c>
+      <c r="E96" t="s">
         <v>715</v>
-      </c>
-      <c r="E96" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4368,13 +4368,13 @@
         <v>333</v>
       </c>
       <c r="B97" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D97" t="s">
+        <v>714</v>
+      </c>
+      <c r="E97" t="s">
         <v>715</v>
-      </c>
-      <c r="E97" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4382,13 +4382,13 @@
         <v>359</v>
       </c>
       <c r="B98" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D98" t="s">
+        <v>714</v>
+      </c>
+      <c r="E98" t="s">
         <v>715</v>
-      </c>
-      <c r="E98" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4396,13 +4396,13 @@
         <v>352</v>
       </c>
       <c r="B99" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D99" t="s">
+        <v>714</v>
+      </c>
+      <c r="E99" t="s">
         <v>715</v>
-      </c>
-      <c r="E99" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,13 +4410,13 @@
         <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D100" t="s">
+        <v>714</v>
+      </c>
+      <c r="E100" t="s">
         <v>715</v>
-      </c>
-      <c r="E100" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4424,13 +4424,13 @@
         <v>375</v>
       </c>
       <c r="B101" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D101" t="s">
+        <v>714</v>
+      </c>
+      <c r="E101" t="s">
         <v>715</v>
-      </c>
-      <c r="E101" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4438,13 +4438,13 @@
         <v>280</v>
       </c>
       <c r="B102" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D102" t="s">
+        <v>714</v>
+      </c>
+      <c r="E102" t="s">
         <v>715</v>
-      </c>
-      <c r="E102" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4452,13 +4452,13 @@
         <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D103" t="s">
+        <v>714</v>
+      </c>
+      <c r="E103" t="s">
         <v>715</v>
-      </c>
-      <c r="E103" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,13 +4466,13 @@
         <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D104" t="s">
+        <v>714</v>
+      </c>
+      <c r="E104" t="s">
         <v>715</v>
-      </c>
-      <c r="E104" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4480,13 +4480,13 @@
         <v>366</v>
       </c>
       <c r="B105" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D105" t="s">
+        <v>714</v>
+      </c>
+      <c r="E105" t="s">
         <v>715</v>
-      </c>
-      <c r="E105" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4494,13 +4494,13 @@
         <v>286</v>
       </c>
       <c r="B106" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D106" t="s">
+        <v>714</v>
+      </c>
+      <c r="E106" t="s">
         <v>715</v>
-      </c>
-      <c r="E106" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4508,13 +4508,13 @@
         <v>328</v>
       </c>
       <c r="B107" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D107" t="s">
+        <v>714</v>
+      </c>
+      <c r="E107" t="s">
         <v>715</v>
-      </c>
-      <c r="E107" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4522,13 +4522,13 @@
         <v>300</v>
       </c>
       <c r="B108" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D108" t="s">
+        <v>714</v>
+      </c>
+      <c r="E108" t="s">
         <v>715</v>
-      </c>
-      <c r="E108" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4536,13 +4536,13 @@
         <v>389</v>
       </c>
       <c r="B109" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D109" t="s">
+        <v>714</v>
+      </c>
+      <c r="E109" t="s">
         <v>715</v>
-      </c>
-      <c r="E109" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4550,13 +4550,13 @@
         <v>374</v>
       </c>
       <c r="B110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D110" t="s">
+        <v>714</v>
+      </c>
+      <c r="E110" t="s">
         <v>715</v>
-      </c>
-      <c r="E110" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4564,13 +4564,13 @@
         <v>362</v>
       </c>
       <c r="B111" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D111" t="s">
+        <v>714</v>
+      </c>
+      <c r="E111" t="s">
         <v>715</v>
-      </c>
-      <c r="E111" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4578,13 +4578,13 @@
         <v>289</v>
       </c>
       <c r="B112" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D112" t="s">
+        <v>714</v>
+      </c>
+      <c r="E112" t="s">
         <v>715</v>
-      </c>
-      <c r="E112" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4592,13 +4592,13 @@
         <v>336</v>
       </c>
       <c r="B113" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D113" t="s">
+        <v>714</v>
+      </c>
+      <c r="E113" t="s">
         <v>715</v>
-      </c>
-      <c r="E113" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4606,13 +4606,13 @@
         <v>392</v>
       </c>
       <c r="B114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D114" t="s">
+        <v>714</v>
+      </c>
+      <c r="E114" t="s">
         <v>715</v>
-      </c>
-      <c r="E114" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4620,13 +4620,13 @@
         <v>387</v>
       </c>
       <c r="B115" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D115" t="s">
+        <v>714</v>
+      </c>
+      <c r="E115" t="s">
         <v>715</v>
-      </c>
-      <c r="E115" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4634,13 +4634,13 @@
         <v>279</v>
       </c>
       <c r="B116" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D116" t="s">
+        <v>714</v>
+      </c>
+      <c r="E116" t="s">
         <v>715</v>
-      </c>
-      <c r="E116" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4648,13 +4648,13 @@
         <v>317</v>
       </c>
       <c r="B117" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D117" t="s">
+        <v>714</v>
+      </c>
+      <c r="E117" t="s">
         <v>715</v>
-      </c>
-      <c r="E117" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4662,13 +4662,13 @@
         <v>388</v>
       </c>
       <c r="B118" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D118" t="s">
+        <v>714</v>
+      </c>
+      <c r="E118" t="s">
         <v>715</v>
-      </c>
-      <c r="E118" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4676,13 +4676,13 @@
         <v>378</v>
       </c>
       <c r="B119" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D119" t="s">
+        <v>714</v>
+      </c>
+      <c r="E119" t="s">
         <v>715</v>
-      </c>
-      <c r="E119" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4690,13 +4690,13 @@
         <v>365</v>
       </c>
       <c r="B120" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D120" t="s">
+        <v>714</v>
+      </c>
+      <c r="E120" t="s">
         <v>715</v>
-      </c>
-      <c r="E120" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4704,13 +4704,13 @@
         <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D121" t="s">
+        <v>714</v>
+      </c>
+      <c r="E121" t="s">
         <v>715</v>
-      </c>
-      <c r="E121" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4718,13 +4718,13 @@
         <v>380</v>
       </c>
       <c r="B122" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D122" t="s">
+        <v>714</v>
+      </c>
+      <c r="E122" t="s">
         <v>715</v>
-      </c>
-      <c r="E122" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4732,13 +4732,13 @@
         <v>385</v>
       </c>
       <c r="B123" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D123" t="s">
+        <v>714</v>
+      </c>
+      <c r="E123" t="s">
         <v>715</v>
-      </c>
-      <c r="E123" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4746,13 +4746,13 @@
         <v>291</v>
       </c>
       <c r="B124" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D124" t="s">
+        <v>714</v>
+      </c>
+      <c r="E124" t="s">
         <v>715</v>
-      </c>
-      <c r="E124" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4760,13 +4760,13 @@
         <v>391</v>
       </c>
       <c r="B125" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D125" t="s">
+        <v>714</v>
+      </c>
+      <c r="E125" t="s">
         <v>715</v>
-      </c>
-      <c r="E125" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4774,13 +4774,13 @@
         <v>364</v>
       </c>
       <c r="B126" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D126" t="s">
+        <v>714</v>
+      </c>
+      <c r="E126" t="s">
         <v>715</v>
-      </c>
-      <c r="E126" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4788,13 +4788,13 @@
         <v>361</v>
       </c>
       <c r="B127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D127" t="s">
+        <v>714</v>
+      </c>
+      <c r="E127" t="s">
         <v>715</v>
-      </c>
-      <c r="E127" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4802,13 +4802,13 @@
         <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D128" t="s">
+        <v>714</v>
+      </c>
+      <c r="E128" t="s">
         <v>715</v>
-      </c>
-      <c r="E128" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4816,13 +4816,13 @@
         <v>290</v>
       </c>
       <c r="B129" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D129" t="s">
+        <v>714</v>
+      </c>
+      <c r="E129" t="s">
         <v>715</v>
-      </c>
-      <c r="E129" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4830,13 +4830,13 @@
         <v>281</v>
       </c>
       <c r="B130" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D130" t="s">
+        <v>714</v>
+      </c>
+      <c r="E130" t="s">
         <v>715</v>
-      </c>
-      <c r="E130" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4844,13 +4844,13 @@
         <v>383</v>
       </c>
       <c r="B131" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D131" t="s">
+        <v>714</v>
+      </c>
+      <c r="E131" t="s">
         <v>715</v>
-      </c>
-      <c r="E131" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4858,13 +4858,13 @@
         <v>381</v>
       </c>
       <c r="B132" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D132" t="s">
+        <v>714</v>
+      </c>
+      <c r="E132" t="s">
         <v>715</v>
-      </c>
-      <c r="E132" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4872,13 +4872,13 @@
         <v>315</v>
       </c>
       <c r="B133" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D133" t="s">
+        <v>714</v>
+      </c>
+      <c r="E133" t="s">
         <v>715</v>
-      </c>
-      <c r="E133" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4886,13 +4886,13 @@
         <v>363</v>
       </c>
       <c r="B134" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D134" t="s">
+        <v>714</v>
+      </c>
+      <c r="E134" t="s">
         <v>715</v>
-      </c>
-      <c r="E134" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4900,13 +4900,13 @@
         <v>390</v>
       </c>
       <c r="B135" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D135" t="s">
+        <v>714</v>
+      </c>
+      <c r="E135" t="s">
         <v>715</v>
-      </c>
-      <c r="E135" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4914,13 +4914,13 @@
         <v>360</v>
       </c>
       <c r="B136" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D136" t="s">
+        <v>714</v>
+      </c>
+      <c r="E136" t="s">
         <v>715</v>
-      </c>
-      <c r="E136" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4928,13 +4928,13 @@
         <v>282</v>
       </c>
       <c r="B137" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D137" t="s">
+        <v>714</v>
+      </c>
+      <c r="E137" t="s">
         <v>715</v>
-      </c>
-      <c r="E137" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,13 +4942,13 @@
         <v>351</v>
       </c>
       <c r="B138" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D138" t="s">
+        <v>714</v>
+      </c>
+      <c r="E138" t="s">
         <v>715</v>
-      </c>
-      <c r="E138" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4956,13 +4956,13 @@
         <v>332</v>
       </c>
       <c r="B139" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D139" t="s">
+        <v>714</v>
+      </c>
+      <c r="E139" t="s">
         <v>715</v>
-      </c>
-      <c r="E139" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4970,13 +4970,13 @@
         <v>382</v>
       </c>
       <c r="B140" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D140" t="s">
+        <v>714</v>
+      </c>
+      <c r="E140" t="s">
         <v>715</v>
-      </c>
-      <c r="E140" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4984,13 +4984,13 @@
         <v>379</v>
       </c>
       <c r="B141" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D141" t="s">
+        <v>714</v>
+      </c>
+      <c r="E141" t="s">
         <v>715</v>
-      </c>
-      <c r="E141" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4998,13 +4998,13 @@
         <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D142" t="s">
+        <v>714</v>
+      </c>
+      <c r="E142" t="s">
         <v>715</v>
-      </c>
-      <c r="E142" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -5012,13 +5012,13 @@
         <v>318</v>
       </c>
       <c r="B143" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D143" t="s">
+        <v>714</v>
+      </c>
+      <c r="E143" t="s">
         <v>715</v>
-      </c>
-      <c r="E143" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -5026,13 +5026,13 @@
         <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D144" t="s">
+        <v>714</v>
+      </c>
+      <c r="E144" t="s">
         <v>715</v>
-      </c>
-      <c r="E144" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -5040,13 +5040,13 @@
         <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D145" t="s">
+        <v>714</v>
+      </c>
+      <c r="E145" t="s">
         <v>715</v>
-      </c>
-      <c r="E145" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -5054,13 +5054,13 @@
         <v>313</v>
       </c>
       <c r="B146" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D146" t="s">
+        <v>714</v>
+      </c>
+      <c r="E146" t="s">
         <v>715</v>
-      </c>
-      <c r="E146" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -5068,13 +5068,13 @@
         <v>273</v>
       </c>
       <c r="B147" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D147" t="s">
+        <v>714</v>
+      </c>
+      <c r="E147" t="s">
         <v>715</v>
-      </c>
-      <c r="E147" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -5082,13 +5082,13 @@
         <v>274</v>
       </c>
       <c r="B148" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D148" t="s">
+        <v>714</v>
+      </c>
+      <c r="E148" t="s">
         <v>715</v>
-      </c>
-      <c r="E148" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -5096,13 +5096,13 @@
         <v>276</v>
       </c>
       <c r="B149" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D149" t="s">
+        <v>714</v>
+      </c>
+      <c r="E149" t="s">
         <v>715</v>
-      </c>
-      <c r="E149" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -5110,13 +5110,13 @@
         <v>277</v>
       </c>
       <c r="B150" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D150" t="s">
+        <v>714</v>
+      </c>
+      <c r="E150" t="s">
         <v>715</v>
-      </c>
-      <c r="E150" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -5124,13 +5124,13 @@
         <v>278</v>
       </c>
       <c r="B151" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D151" t="s">
+        <v>714</v>
+      </c>
+      <c r="E151" t="s">
         <v>715</v>
-      </c>
-      <c r="E151" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -5138,13 +5138,13 @@
         <v>275</v>
       </c>
       <c r="B152" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D152" t="s">
+        <v>714</v>
+      </c>
+      <c r="E152" t="s">
         <v>715</v>
-      </c>
-      <c r="E152" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -5152,13 +5152,13 @@
         <v>323</v>
       </c>
       <c r="B153" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D153" t="s">
+        <v>714</v>
+      </c>
+      <c r="E153" t="s">
         <v>715</v>
-      </c>
-      <c r="E153" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -5166,13 +5166,13 @@
         <v>319</v>
       </c>
       <c r="B154" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D154" t="s">
+        <v>714</v>
+      </c>
+      <c r="E154" t="s">
         <v>715</v>
-      </c>
-      <c r="E154" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -5180,13 +5180,13 @@
         <v>296</v>
       </c>
       <c r="B155" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D155" t="s">
+        <v>714</v>
+      </c>
+      <c r="E155" t="s">
         <v>715</v>
-      </c>
-      <c r="E155" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -5194,13 +5194,13 @@
         <v>293</v>
       </c>
       <c r="B156" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D156" t="s">
+        <v>714</v>
+      </c>
+      <c r="E156" t="s">
         <v>715</v>
-      </c>
-      <c r="E156" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -5208,13 +5208,13 @@
         <v>294</v>
       </c>
       <c r="B157" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D157" t="s">
+        <v>714</v>
+      </c>
+      <c r="E157" t="s">
         <v>715</v>
-      </c>
-      <c r="E157" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -5222,13 +5222,13 @@
         <v>295</v>
       </c>
       <c r="B158" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D158" t="s">
+        <v>714</v>
+      </c>
+      <c r="E158" t="s">
         <v>715</v>
-      </c>
-      <c r="E158" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -5236,13 +5236,13 @@
         <v>354</v>
       </c>
       <c r="B159" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D159" t="s">
+        <v>714</v>
+      </c>
+      <c r="E159" t="s">
         <v>715</v>
-      </c>
-      <c r="E159" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -5250,13 +5250,13 @@
         <v>356</v>
       </c>
       <c r="B160" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D160" t="s">
+        <v>714</v>
+      </c>
+      <c r="E160" t="s">
         <v>715</v>
-      </c>
-      <c r="E160" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -5264,13 +5264,13 @@
         <v>355</v>
       </c>
       <c r="B161" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D161" t="s">
+        <v>714</v>
+      </c>
+      <c r="E161" t="s">
         <v>715</v>
-      </c>
-      <c r="E161" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5278,13 +5278,13 @@
         <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D162" t="s">
+        <v>714</v>
+      </c>
+      <c r="E162" t="s">
         <v>715</v>
-      </c>
-      <c r="E162" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -5292,13 +5292,13 @@
         <v>368</v>
       </c>
       <c r="B163" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D163" t="s">
+        <v>714</v>
+      </c>
+      <c r="E163" t="s">
         <v>715</v>
-      </c>
-      <c r="E163" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -5306,13 +5306,13 @@
         <v>311</v>
       </c>
       <c r="B164" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D164" t="s">
+        <v>714</v>
+      </c>
+      <c r="E164" t="s">
         <v>715</v>
-      </c>
-      <c r="E164" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5320,13 +5320,13 @@
         <v>312</v>
       </c>
       <c r="B165" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D165" t="s">
+        <v>714</v>
+      </c>
+      <c r="E165" t="s">
         <v>715</v>
-      </c>
-      <c r="E165" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5334,13 +5334,13 @@
         <v>310</v>
       </c>
       <c r="B166" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D166" t="s">
+        <v>714</v>
+      </c>
+      <c r="E166" t="s">
         <v>715</v>
-      </c>
-      <c r="E166" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5348,13 +5348,13 @@
         <v>376</v>
       </c>
       <c r="B167" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D167" t="s">
+        <v>714</v>
+      </c>
+      <c r="E167" t="s">
         <v>715</v>
-      </c>
-      <c r="E167" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5362,13 +5362,13 @@
         <v>357</v>
       </c>
       <c r="B168" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D168" t="s">
+        <v>714</v>
+      </c>
+      <c r="E168" t="s">
         <v>715</v>
-      </c>
-      <c r="E168" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5376,7 +5376,7 @@
         <v>283</v>
       </c>
       <c r="B169" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E169" t="s">
         <v>696</v>
@@ -5387,7 +5387,7 @@
         <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E170" t="s">
         <v>696</v>
@@ -5398,7 +5398,7 @@
         <v>271</v>
       </c>
       <c r="B171" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E171" t="s">
         <v>696</v>
@@ -8463,7 +8463,7 @@
         <v>40</v>
       </c>
       <c r="B394" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C394" t="s">
         <v>702</v>
@@ -8477,7 +8477,7 @@
         <v>41</v>
       </c>
       <c r="B395" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C395" t="s">
         <v>703</v>
@@ -8502,7 +8502,7 @@
         <v>42</v>
       </c>
       <c r="B397" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E397" t="s">
         <v>696</v>
@@ -8647,7 +8647,7 @@
         <v>688</v>
       </c>
       <c r="C408" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D408" t="s">
         <v>691</v>
@@ -9123,7 +9123,7 @@
         <v>417</v>
       </c>
       <c r="B448" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E448" t="s">
         <v>696</v>
@@ -9134,7 +9134,7 @@
         <v>418</v>
       </c>
       <c r="B449" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E449" t="s">
         <v>696</v>
@@ -9145,7 +9145,7 @@
         <v>416</v>
       </c>
       <c r="B450" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E450" t="s">
         <v>696</v>
@@ -9156,7 +9156,7 @@
         <v>448</v>
       </c>
       <c r="B451" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E451" t="s">
         <v>696</v>
@@ -9167,7 +9167,7 @@
         <v>437</v>
       </c>
       <c r="B452" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E452" t="s">
         <v>696</v>
@@ -9178,7 +9178,7 @@
         <v>449</v>
       </c>
       <c r="B453" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E453" t="s">
         <v>696</v>
@@ -9189,7 +9189,7 @@
         <v>450</v>
       </c>
       <c r="B454" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E454" t="s">
         <v>696</v>
@@ -9200,7 +9200,7 @@
         <v>407</v>
       </c>
       <c r="B455" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C455" t="s">
         <v>706</v>
@@ -9214,7 +9214,7 @@
         <v>406</v>
       </c>
       <c r="B456" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E456" t="s">
         <v>696</v>
@@ -9225,7 +9225,7 @@
         <v>438</v>
       </c>
       <c r="B457" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E457" t="s">
         <v>696</v>
@@ -9236,7 +9236,7 @@
         <v>447</v>
       </c>
       <c r="B458" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E458" t="s">
         <v>696</v>
@@ -9247,7 +9247,7 @@
         <v>425</v>
       </c>
       <c r="B459" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C459" t="s">
         <v>707</v>
@@ -9261,7 +9261,7 @@
         <v>451</v>
       </c>
       <c r="B460" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E460" t="s">
         <v>696</v>
@@ -9272,7 +9272,7 @@
         <v>436</v>
       </c>
       <c r="B461" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E461" t="s">
         <v>696</v>
@@ -9283,7 +9283,7 @@
         <v>516</v>
       </c>
       <c r="B462" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C462" s="5"/>
       <c r="D462" s="5"/>
@@ -9296,7 +9296,7 @@
         <v>517</v>
       </c>
       <c r="B463" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E463" t="s">
         <v>696</v>
@@ -9307,7 +9307,7 @@
         <v>518</v>
       </c>
       <c r="B464" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E464" t="s">
         <v>696</v>
@@ -9318,7 +9318,7 @@
         <v>519</v>
       </c>
       <c r="B465" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E465" t="s">
         <v>696</v>
@@ -9329,7 +9329,7 @@
         <v>520</v>
       </c>
       <c r="B466" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E466" t="s">
         <v>696</v>
@@ -9340,7 +9340,7 @@
         <v>526</v>
       </c>
       <c r="B467" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D467" t="s">
         <v>705</v>
@@ -9354,7 +9354,7 @@
         <v>525</v>
       </c>
       <c r="B468" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D468" t="s">
         <v>705</v>
@@ -9368,7 +9368,7 @@
         <v>584</v>
       </c>
       <c r="B469" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D469" t="s">
         <v>705</v>
@@ -9382,7 +9382,7 @@
         <v>624</v>
       </c>
       <c r="B470" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D470" t="s">
         <v>705</v>
@@ -9396,7 +9396,7 @@
         <v>649</v>
       </c>
       <c r="B471" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D471" t="s">
         <v>705</v>
@@ -9410,7 +9410,7 @@
         <v>635</v>
       </c>
       <c r="B472" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D472" t="s">
         <v>705</v>
@@ -9424,7 +9424,7 @@
         <v>638</v>
       </c>
       <c r="B473" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D473" t="s">
         <v>705</v>
@@ -9438,7 +9438,7 @@
         <v>590</v>
       </c>
       <c r="B474" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D474" t="s">
         <v>705</v>
@@ -9452,7 +9452,7 @@
         <v>620</v>
       </c>
       <c r="B475" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D475" t="s">
         <v>705</v>
@@ -9466,7 +9466,7 @@
         <v>615</v>
       </c>
       <c r="B476" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D476" t="s">
         <v>705</v>
@@ -9480,7 +9480,7 @@
         <v>640</v>
       </c>
       <c r="B477" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D477" t="s">
         <v>705</v>
@@ -9494,7 +9494,7 @@
         <v>622</v>
       </c>
       <c r="B478" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D478" t="s">
         <v>705</v>
@@ -9508,7 +9508,7 @@
         <v>617</v>
       </c>
       <c r="B479" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D479" t="s">
         <v>705</v>
@@ -9522,7 +9522,7 @@
         <v>625</v>
       </c>
       <c r="B480" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D480" t="s">
         <v>705</v>
@@ -9536,7 +9536,7 @@
         <v>586</v>
       </c>
       <c r="B481" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D481" t="s">
         <v>705</v>
@@ -9551,7 +9551,7 @@
         <v>648</v>
       </c>
       <c r="B482" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D482" t="s">
         <v>705</v>
@@ -9566,7 +9566,7 @@
         <v>614</v>
       </c>
       <c r="B483" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D483" t="s">
         <v>705</v>
@@ -9581,7 +9581,7 @@
         <v>630</v>
       </c>
       <c r="B484" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D484" t="s">
         <v>705</v>
@@ -9596,7 +9596,7 @@
         <v>608</v>
       </c>
       <c r="B485" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D485" t="s">
         <v>705</v>
@@ -9611,7 +9611,7 @@
         <v>597</v>
       </c>
       <c r="B486" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D486" t="s">
         <v>705</v>
@@ -9626,7 +9626,7 @@
         <v>629</v>
       </c>
       <c r="B487" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D487" t="s">
         <v>705</v>
@@ -9641,7 +9641,7 @@
         <v>633</v>
       </c>
       <c r="B488" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D488" t="s">
         <v>705</v>
@@ -9656,7 +9656,7 @@
         <v>612</v>
       </c>
       <c r="B489" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D489" t="s">
         <v>705</v>
@@ -9671,7 +9671,7 @@
         <v>634</v>
       </c>
       <c r="B490" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D490" t="s">
         <v>705</v>
@@ -9686,7 +9686,7 @@
         <v>637</v>
       </c>
       <c r="B491" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D491" t="s">
         <v>705</v>
@@ -9701,7 +9701,7 @@
         <v>610</v>
       </c>
       <c r="B492" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D492" t="s">
         <v>705</v>
@@ -9716,7 +9716,7 @@
         <v>641</v>
       </c>
       <c r="B493" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D493" t="s">
         <v>705</v>
@@ -9731,7 +9731,7 @@
         <v>587</v>
       </c>
       <c r="B494" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D494" t="s">
         <v>705</v>
@@ -9746,7 +9746,7 @@
         <v>645</v>
       </c>
       <c r="B495" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D495" t="s">
         <v>705</v>
@@ -9761,7 +9761,7 @@
         <v>650</v>
       </c>
       <c r="B496" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D496" t="s">
         <v>705</v>
@@ -9776,7 +9776,7 @@
         <v>594</v>
       </c>
       <c r="B497" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D497" t="s">
         <v>705</v>
@@ -9791,7 +9791,7 @@
         <v>621</v>
       </c>
       <c r="B498" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D498" t="s">
         <v>705</v>
@@ -9806,7 +9806,7 @@
         <v>601</v>
       </c>
       <c r="B499" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D499" t="s">
         <v>705</v>
@@ -9821,7 +9821,7 @@
         <v>585</v>
       </c>
       <c r="B500" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D500" t="s">
         <v>705</v>
@@ -9836,7 +9836,7 @@
         <v>595</v>
       </c>
       <c r="B501" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D501" t="s">
         <v>705</v>
@@ -9851,7 +9851,7 @@
         <v>623</v>
       </c>
       <c r="B502" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D502" t="s">
         <v>705</v>
@@ -9866,7 +9866,7 @@
         <v>631</v>
       </c>
       <c r="B503" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D503" t="s">
         <v>705</v>
@@ -9881,7 +9881,7 @@
         <v>582</v>
       </c>
       <c r="B504" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D504" t="s">
         <v>705</v>
@@ -9896,7 +9896,7 @@
         <v>602</v>
       </c>
       <c r="B505" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D505" t="s">
         <v>705</v>
@@ -9911,7 +9911,7 @@
         <v>636</v>
       </c>
       <c r="B506" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D506" t="s">
         <v>705</v>
@@ -9926,7 +9926,7 @@
         <v>619</v>
       </c>
       <c r="B507" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D507" t="s">
         <v>705</v>
@@ -9941,7 +9941,7 @@
         <v>613</v>
       </c>
       <c r="B508" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D508" t="s">
         <v>705</v>
@@ -9956,7 +9956,7 @@
         <v>603</v>
       </c>
       <c r="B509" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D509" t="s">
         <v>705</v>
@@ -9971,7 +9971,7 @@
         <v>588</v>
       </c>
       <c r="B510" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D510" t="s">
         <v>705</v>
@@ -9986,7 +9986,7 @@
         <v>627</v>
       </c>
       <c r="B511" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D511" t="s">
         <v>705</v>
@@ -10001,7 +10001,7 @@
         <v>606</v>
       </c>
       <c r="B512" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D512" t="s">
         <v>705</v>
@@ -10016,7 +10016,7 @@
         <v>596</v>
       </c>
       <c r="B513" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D513" t="s">
         <v>705</v>
@@ -10031,7 +10031,7 @@
         <v>589</v>
       </c>
       <c r="B514" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D514" t="s">
         <v>705</v>
@@ -10046,7 +10046,7 @@
         <v>632</v>
       </c>
       <c r="B515" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D515" t="s">
         <v>705</v>
@@ -10061,7 +10061,7 @@
         <v>653</v>
       </c>
       <c r="B516" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D516" t="s">
         <v>705</v>
@@ -10076,7 +10076,7 @@
         <v>646</v>
       </c>
       <c r="B517" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D517" t="s">
         <v>705</v>
@@ -10091,7 +10091,7 @@
         <v>642</v>
       </c>
       <c r="B518" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D518" t="s">
         <v>705</v>
@@ -10106,7 +10106,7 @@
         <v>628</v>
       </c>
       <c r="B519" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D519" t="s">
         <v>705</v>
@@ -10121,7 +10121,7 @@
         <v>643</v>
       </c>
       <c r="B520" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D520" t="s">
         <v>705</v>
@@ -10136,7 +10136,7 @@
         <v>647</v>
       </c>
       <c r="B521" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D521" t="s">
         <v>705</v>
@@ -10151,7 +10151,7 @@
         <v>605</v>
       </c>
       <c r="B522" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D522" t="s">
         <v>705</v>
@@ -10166,7 +10166,7 @@
         <v>639</v>
       </c>
       <c r="B523" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D523" t="s">
         <v>705</v>
@@ -10181,7 +10181,7 @@
         <v>592</v>
       </c>
       <c r="B524" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D524" t="s">
         <v>705</v>
@@ -10196,7 +10196,7 @@
         <v>618</v>
       </c>
       <c r="B525" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D525" t="s">
         <v>705</v>
@@ -10211,7 +10211,7 @@
         <v>652</v>
       </c>
       <c r="B526" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D526" t="s">
         <v>705</v>
@@ -10226,7 +10226,7 @@
         <v>611</v>
       </c>
       <c r="B527" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D527" t="s">
         <v>705</v>
@@ -10241,7 +10241,7 @@
         <v>593</v>
       </c>
       <c r="B528" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D528" t="s">
         <v>705</v>
@@ -10256,7 +10256,7 @@
         <v>644</v>
       </c>
       <c r="B529" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D529" t="s">
         <v>705</v>
@@ -10271,7 +10271,7 @@
         <v>599</v>
       </c>
       <c r="B530" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D530" t="s">
         <v>705</v>
@@ -10286,7 +10286,7 @@
         <v>626</v>
       </c>
       <c r="B531" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D531" t="s">
         <v>705</v>
@@ -10301,7 +10301,7 @@
         <v>604</v>
       </c>
       <c r="B532" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D532" t="s">
         <v>705</v>
@@ -10316,7 +10316,7 @@
         <v>598</v>
       </c>
       <c r="B533" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D533" t="s">
         <v>705</v>
@@ -10331,7 +10331,7 @@
         <v>581</v>
       </c>
       <c r="B534" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D534" t="s">
         <v>705</v>
@@ -10346,7 +10346,7 @@
         <v>609</v>
       </c>
       <c r="B535" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D535" t="s">
         <v>705</v>
@@ -10361,7 +10361,7 @@
         <v>583</v>
       </c>
       <c r="B536" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D536" t="s">
         <v>705</v>
@@ -10376,7 +10376,7 @@
         <v>600</v>
       </c>
       <c r="B537" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D537" t="s">
         <v>705</v>
@@ -10391,7 +10391,7 @@
         <v>616</v>
       </c>
       <c r="B538" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D538" t="s">
         <v>705</v>
@@ -10406,7 +10406,7 @@
         <v>607</v>
       </c>
       <c r="B539" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D539" t="s">
         <v>705</v>
@@ -10421,7 +10421,7 @@
         <v>591</v>
       </c>
       <c r="B540" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D540" t="s">
         <v>705</v>
@@ -10436,7 +10436,7 @@
         <v>651</v>
       </c>
       <c r="B541" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D541" t="s">
         <v>705</v>
@@ -10451,7 +10451,7 @@
         <v>529</v>
       </c>
       <c r="B542" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D542" t="s">
         <v>705</v>
@@ -10466,7 +10466,7 @@
         <v>532</v>
       </c>
       <c r="B543" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D543" t="s">
         <v>705</v>
@@ -10481,7 +10481,7 @@
         <v>530</v>
       </c>
       <c r="B544" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D544" t="s">
         <v>705</v>
@@ -10496,7 +10496,7 @@
         <v>558</v>
       </c>
       <c r="B545" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D545" t="s">
         <v>705</v>
@@ -10511,7 +10511,7 @@
         <v>555</v>
       </c>
       <c r="B546" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D546" t="s">
         <v>705</v>
@@ -10526,7 +10526,7 @@
         <v>554</v>
       </c>
       <c r="B547" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D547" t="s">
         <v>705</v>
@@ -10541,7 +10541,7 @@
         <v>567</v>
       </c>
       <c r="B548" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D548" t="s">
         <v>705</v>
@@ -10556,7 +10556,7 @@
         <v>560</v>
       </c>
       <c r="B549" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D549" t="s">
         <v>705</v>
@@ -10571,7 +10571,7 @@
         <v>561</v>
       </c>
       <c r="B550" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D550" t="s">
         <v>705</v>
@@ -10586,7 +10586,7 @@
         <v>553</v>
       </c>
       <c r="B551" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D551" t="s">
         <v>705</v>
@@ -10601,7 +10601,7 @@
         <v>565</v>
       </c>
       <c r="B552" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D552" t="s">
         <v>705</v>
@@ -10616,7 +10616,7 @@
         <v>556</v>
       </c>
       <c r="B553" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D553" t="s">
         <v>705</v>
@@ -10631,7 +10631,7 @@
         <v>564</v>
       </c>
       <c r="B554" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D554" t="s">
         <v>705</v>
@@ -10646,7 +10646,7 @@
         <v>522</v>
       </c>
       <c r="B555" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D555" t="s">
         <v>705</v>
@@ -10661,7 +10661,7 @@
         <v>524</v>
       </c>
       <c r="B556" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D556" t="s">
         <v>705</v>
@@ -10676,7 +10676,7 @@
         <v>579</v>
       </c>
       <c r="B557" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D557" t="s">
         <v>705</v>
@@ -10691,7 +10691,7 @@
         <v>523</v>
       </c>
       <c r="B558" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D558" t="s">
         <v>705</v>
@@ -10706,7 +10706,7 @@
         <v>527</v>
       </c>
       <c r="B559" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D559" t="s">
         <v>705</v>
@@ -10721,7 +10721,7 @@
         <v>528</v>
       </c>
       <c r="B560" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D560" t="s">
         <v>705</v>
@@ -10736,7 +10736,7 @@
         <v>534</v>
       </c>
       <c r="B561" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D561" t="s">
         <v>705</v>
@@ -10751,7 +10751,7 @@
         <v>541</v>
       </c>
       <c r="B562" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D562" t="s">
         <v>705</v>
@@ -10766,7 +10766,7 @@
         <v>578</v>
       </c>
       <c r="B563" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D563" t="s">
         <v>705</v>
@@ -10781,7 +10781,7 @@
         <v>577</v>
       </c>
       <c r="B564" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D564" t="s">
         <v>705</v>
@@ -10796,7 +10796,7 @@
         <v>580</v>
       </c>
       <c r="B565" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D565" t="s">
         <v>705</v>
@@ -10811,7 +10811,7 @@
         <v>548</v>
       </c>
       <c r="B566" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D566" t="s">
         <v>705</v>
@@ -10826,7 +10826,7 @@
         <v>551</v>
       </c>
       <c r="B567" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D567" t="s">
         <v>705</v>
@@ -10841,7 +10841,7 @@
         <v>569</v>
       </c>
       <c r="B568" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D568" t="s">
         <v>705</v>
@@ -10856,7 +10856,7 @@
         <v>559</v>
       </c>
       <c r="B569" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D569" t="s">
         <v>705</v>
@@ -10871,7 +10871,7 @@
         <v>566</v>
       </c>
       <c r="B570" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D570" t="s">
         <v>705</v>
@@ -10886,7 +10886,7 @@
         <v>557</v>
       </c>
       <c r="B571" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D571" t="s">
         <v>705</v>
@@ -10901,7 +10901,7 @@
         <v>574</v>
       </c>
       <c r="B572" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D572" t="s">
         <v>705</v>
@@ -10916,7 +10916,7 @@
         <v>544</v>
       </c>
       <c r="B573" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D573" t="s">
         <v>705</v>
@@ -10931,7 +10931,7 @@
         <v>576</v>
       </c>
       <c r="B574" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D574" t="s">
         <v>705</v>
@@ -10946,7 +10946,7 @@
         <v>538</v>
       </c>
       <c r="B575" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D575" t="s">
         <v>705</v>
@@ -10961,7 +10961,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D576" t="s">
         <v>705</v>
@@ -10976,7 +10976,7 @@
         <v>545</v>
       </c>
       <c r="B577" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D577" t="s">
         <v>705</v>
@@ -10991,7 +10991,7 @@
         <v>572</v>
       </c>
       <c r="B578" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D578" t="s">
         <v>705</v>
@@ -11006,7 +11006,7 @@
         <v>535</v>
       </c>
       <c r="B579" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D579" t="s">
         <v>705</v>
@@ -11021,7 +11021,7 @@
         <v>546</v>
       </c>
       <c r="B580" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D580" t="s">
         <v>705</v>
@@ -11036,7 +11036,7 @@
         <v>562</v>
       </c>
       <c r="B581" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D581" t="s">
         <v>705</v>
@@ -11051,7 +11051,7 @@
         <v>563</v>
       </c>
       <c r="B582" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D582" t="s">
         <v>705</v>
@@ -11066,7 +11066,7 @@
         <v>539</v>
       </c>
       <c r="B583" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D583" t="s">
         <v>705</v>
@@ -11081,7 +11081,7 @@
         <v>531</v>
       </c>
       <c r="B584" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D584" t="s">
         <v>705</v>
@@ -11096,7 +11096,7 @@
         <v>533</v>
       </c>
       <c r="B585" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D585" t="s">
         <v>705</v>
@@ -11111,7 +11111,7 @@
         <v>537</v>
       </c>
       <c r="B586" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D586" t="s">
         <v>705</v>
@@ -11126,7 +11126,7 @@
         <v>568</v>
       </c>
       <c r="B587" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D587" t="s">
         <v>705</v>
@@ -11141,7 +11141,7 @@
         <v>543</v>
       </c>
       <c r="B588" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D588" t="s">
         <v>705</v>
@@ -11156,7 +11156,7 @@
         <v>542</v>
       </c>
       <c r="B589" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D589" t="s">
         <v>705</v>
@@ -11171,7 +11171,7 @@
         <v>540</v>
       </c>
       <c r="B590" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D590" t="s">
         <v>705</v>
@@ -11186,7 +11186,7 @@
         <v>550</v>
       </c>
       <c r="B591" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D591" t="s">
         <v>705</v>
@@ -11201,7 +11201,7 @@
         <v>536</v>
       </c>
       <c r="B592" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D592" t="s">
         <v>705</v>
@@ -11216,7 +11216,7 @@
         <v>547</v>
       </c>
       <c r="B593" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D593" t="s">
         <v>705</v>
@@ -11231,7 +11231,7 @@
         <v>549</v>
       </c>
       <c r="B594" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D594" t="s">
         <v>705</v>
@@ -11246,7 +11246,7 @@
         <v>552</v>
       </c>
       <c r="B595" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D595" t="s">
         <v>705</v>
@@ -11261,7 +11261,7 @@
         <v>573</v>
       </c>
       <c r="B596" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D596" t="s">
         <v>705</v>
@@ -11276,7 +11276,7 @@
         <v>571</v>
       </c>
       <c r="B597" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D597" t="s">
         <v>705</v>
@@ -11291,7 +11291,7 @@
         <v>570</v>
       </c>
       <c r="B598" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D598" t="s">
         <v>705</v>
@@ -11306,7 +11306,7 @@
         <v>515</v>
       </c>
       <c r="B599" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E599" t="s">
         <v>696</v>
@@ -11318,7 +11318,7 @@
         <v>524</v>
       </c>
       <c r="B600" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E600" t="s">
         <v>696</v>
@@ -11330,7 +11330,7 @@
         <v>530</v>
       </c>
       <c r="B601" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E601" t="s">
         <v>696</v>
@@ -11342,10 +11342,10 @@
         <v>477</v>
       </c>
       <c r="B602" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D602" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E602" t="s">
         <v>696</v>
@@ -11357,10 +11357,10 @@
         <v>478</v>
       </c>
       <c r="B603" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D603" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E603" t="s">
         <v>696</v>
@@ -11372,10 +11372,10 @@
         <v>479</v>
       </c>
       <c r="B604" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D604" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E604" t="s">
         <v>696</v>
@@ -11387,10 +11387,10 @@
         <v>480</v>
       </c>
       <c r="B605" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D605" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E605" t="s">
         <v>696</v>
@@ -11402,10 +11402,10 @@
         <v>481</v>
       </c>
       <c r="B606" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D606" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E606" t="s">
         <v>696</v>
@@ -11417,10 +11417,10 @@
         <v>482</v>
       </c>
       <c r="B607" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D607" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E607" t="s">
         <v>696</v>
@@ -11432,10 +11432,10 @@
         <v>483</v>
       </c>
       <c r="B608" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D608" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E608" t="s">
         <v>696</v>
@@ -11447,10 +11447,10 @@
         <v>484</v>
       </c>
       <c r="B609" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D609" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E609" t="s">
         <v>696</v>
@@ -11462,10 +11462,10 @@
         <v>485</v>
       </c>
       <c r="B610" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D610" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E610" t="s">
         <v>696</v>
@@ -11477,10 +11477,10 @@
         <v>486</v>
       </c>
       <c r="B611" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D611" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E611" t="s">
         <v>696</v>
@@ -11492,10 +11492,10 @@
         <v>487</v>
       </c>
       <c r="B612" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D612" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E612" t="s">
         <v>696</v>
@@ -11507,10 +11507,10 @@
         <v>488</v>
       </c>
       <c r="B613" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D613" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E613" t="s">
         <v>696</v>
@@ -11521,10 +11521,10 @@
         <v>489</v>
       </c>
       <c r="B614" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D614" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E614" t="s">
         <v>696</v>
@@ -11535,10 +11535,10 @@
         <v>490</v>
       </c>
       <c r="B615" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D615" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E615" t="s">
         <v>696</v>
@@ -11549,10 +11549,10 @@
         <v>491</v>
       </c>
       <c r="B616" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D616" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E616" t="s">
         <v>696</v>
@@ -11563,10 +11563,10 @@
         <v>492</v>
       </c>
       <c r="B617" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D617" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E617" t="s">
         <v>696</v>
@@ -11577,10 +11577,10 @@
         <v>493</v>
       </c>
       <c r="B618" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D618" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E618" t="s">
         <v>696</v>
@@ -11591,10 +11591,10 @@
         <v>494</v>
       </c>
       <c r="B619" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D619" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E619" t="s">
         <v>696</v>
@@ -11605,10 +11605,10 @@
         <v>495</v>
       </c>
       <c r="B620" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D620" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E620" t="s">
         <v>696</v>
@@ -11619,10 +11619,10 @@
         <v>496</v>
       </c>
       <c r="B621" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D621" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E621" t="s">
         <v>696</v>
@@ -11633,10 +11633,10 @@
         <v>497</v>
       </c>
       <c r="B622" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D622" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E622" t="s">
         <v>696</v>
@@ -11647,10 +11647,10 @@
         <v>498</v>
       </c>
       <c r="B623" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D623" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E623" t="s">
         <v>696</v>
@@ -11661,10 +11661,10 @@
         <v>499</v>
       </c>
       <c r="B624" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D624" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E624" t="s">
         <v>696</v>
@@ -11675,10 +11675,10 @@
         <v>500</v>
       </c>
       <c r="B625" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D625" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E625" t="s">
         <v>696</v>
@@ -11689,10 +11689,10 @@
         <v>501</v>
       </c>
       <c r="B626" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D626" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E626" t="s">
         <v>696</v>
@@ -11703,10 +11703,10 @@
         <v>502</v>
       </c>
       <c r="B627" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D627" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E627" t="s">
         <v>696</v>
@@ -11717,10 +11717,10 @@
         <v>503</v>
       </c>
       <c r="B628" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D628" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E628" t="s">
         <v>696</v>
@@ -11731,10 +11731,10 @@
         <v>504</v>
       </c>
       <c r="B629" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D629" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E629" t="s">
         <v>696</v>
@@ -11745,10 +11745,10 @@
         <v>505</v>
       </c>
       <c r="B630" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D630" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E630" t="s">
         <v>696</v>
@@ -11759,10 +11759,10 @@
         <v>506</v>
       </c>
       <c r="B631" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D631" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E631" t="s">
         <v>696</v>
@@ -11773,10 +11773,10 @@
         <v>507</v>
       </c>
       <c r="B632" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D632" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E632" t="s">
         <v>696</v>
@@ -11787,10 +11787,10 @@
         <v>508</v>
       </c>
       <c r="B633" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D633" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E633" t="s">
         <v>696</v>
@@ -11801,10 +11801,10 @@
         <v>509</v>
       </c>
       <c r="B634" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D634" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E634" t="s">
         <v>696</v>
@@ -11815,10 +11815,10 @@
         <v>510</v>
       </c>
       <c r="B635" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D635" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E635" t="s">
         <v>696</v>
@@ -11829,10 +11829,10 @@
         <v>511</v>
       </c>
       <c r="B636" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D636" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E636" t="s">
         <v>696</v>
@@ -11843,10 +11843,10 @@
         <v>512</v>
       </c>
       <c r="B637" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D637" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E637" t="s">
         <v>696</v>
@@ -11857,10 +11857,10 @@
         <v>513</v>
       </c>
       <c r="B638" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D638" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E638" t="s">
         <v>696</v>
@@ -11871,10 +11871,10 @@
         <v>514</v>
       </c>
       <c r="B639" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D639" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E639" t="s">
         <v>696</v>
@@ -11885,10 +11885,10 @@
         <v>476</v>
       </c>
       <c r="B640" t="s">
+        <v>721</v>
+      </c>
+      <c r="D640" t="s">
         <v>722</v>
-      </c>
-      <c r="D640" t="s">
-        <v>709</v>
       </c>
       <c r="E640" t="s">
         <v>696</v>
@@ -11899,10 +11899,10 @@
         <v>475</v>
       </c>
       <c r="B641" t="s">
+        <v>721</v>
+      </c>
+      <c r="D641" t="s">
         <v>722</v>
-      </c>
-      <c r="D641" t="s">
-        <v>709</v>
       </c>
       <c r="E641" t="s">
         <v>696</v>
@@ -11913,10 +11913,10 @@
         <v>466</v>
       </c>
       <c r="B642" t="s">
+        <v>721</v>
+      </c>
+      <c r="D642" t="s">
         <v>722</v>
-      </c>
-      <c r="D642" t="s">
-        <v>709</v>
       </c>
       <c r="E642" t="s">
         <v>696</v>
@@ -11927,10 +11927,10 @@
         <v>473</v>
       </c>
       <c r="B643" t="s">
+        <v>721</v>
+      </c>
+      <c r="D643" t="s">
         <v>722</v>
-      </c>
-      <c r="D643" t="s">
-        <v>709</v>
       </c>
       <c r="E643" t="s">
         <v>696</v>
@@ -11941,10 +11941,10 @@
         <v>474</v>
       </c>
       <c r="B644" t="s">
+        <v>721</v>
+      </c>
+      <c r="D644" t="s">
         <v>722</v>
-      </c>
-      <c r="D644" t="s">
-        <v>709</v>
       </c>
       <c r="E644" t="s">
         <v>696</v>
@@ -11955,10 +11955,10 @@
         <v>465</v>
       </c>
       <c r="B645" t="s">
+        <v>721</v>
+      </c>
+      <c r="D645" t="s">
         <v>722</v>
-      </c>
-      <c r="D645" t="s">
-        <v>709</v>
       </c>
       <c r="E645" t="s">
         <v>696</v>
@@ -11969,10 +11969,10 @@
         <v>460</v>
       </c>
       <c r="B646" t="s">
+        <v>721</v>
+      </c>
+      <c r="D646" t="s">
         <v>722</v>
-      </c>
-      <c r="D646" t="s">
-        <v>709</v>
       </c>
       <c r="E646" t="s">
         <v>696</v>
@@ -11983,10 +11983,10 @@
         <v>456</v>
       </c>
       <c r="B647" t="s">
+        <v>721</v>
+      </c>
+      <c r="D647" t="s">
         <v>722</v>
-      </c>
-      <c r="D647" t="s">
-        <v>709</v>
       </c>
       <c r="E647" t="s">
         <v>696</v>
@@ -11997,10 +11997,10 @@
         <v>454</v>
       </c>
       <c r="B648" t="s">
+        <v>721</v>
+      </c>
+      <c r="D648" t="s">
         <v>722</v>
-      </c>
-      <c r="D648" t="s">
-        <v>709</v>
       </c>
       <c r="E648" t="s">
         <v>696</v>
@@ -12011,10 +12011,10 @@
         <v>463</v>
       </c>
       <c r="B649" t="s">
+        <v>721</v>
+      </c>
+      <c r="D649" t="s">
         <v>722</v>
-      </c>
-      <c r="D649" t="s">
-        <v>709</v>
       </c>
       <c r="E649" t="s">
         <v>696</v>
@@ -12025,10 +12025,10 @@
         <v>461</v>
       </c>
       <c r="B650" t="s">
+        <v>721</v>
+      </c>
+      <c r="D650" t="s">
         <v>722</v>
-      </c>
-      <c r="D650" t="s">
-        <v>709</v>
       </c>
       <c r="E650" t="s">
         <v>696</v>
@@ -12039,10 +12039,10 @@
         <v>462</v>
       </c>
       <c r="B651" t="s">
+        <v>721</v>
+      </c>
+      <c r="D651" t="s">
         <v>722</v>
-      </c>
-      <c r="D651" t="s">
-        <v>709</v>
       </c>
       <c r="E651" t="s">
         <v>696</v>
@@ -12053,10 +12053,10 @@
         <v>455</v>
       </c>
       <c r="B652" t="s">
+        <v>721</v>
+      </c>
+      <c r="D652" t="s">
         <v>722</v>
-      </c>
-      <c r="D652" t="s">
-        <v>709</v>
       </c>
       <c r="E652" t="s">
         <v>696</v>
@@ -12067,10 +12067,10 @@
         <v>464</v>
       </c>
       <c r="B653" t="s">
+        <v>721</v>
+      </c>
+      <c r="D653" t="s">
         <v>722</v>
-      </c>
-      <c r="D653" t="s">
-        <v>709</v>
       </c>
       <c r="E653" t="s">
         <v>696</v>
@@ -12081,10 +12081,10 @@
         <v>469</v>
       </c>
       <c r="B654" t="s">
+        <v>721</v>
+      </c>
+      <c r="D654" t="s">
         <v>722</v>
-      </c>
-      <c r="D654" t="s">
-        <v>709</v>
       </c>
       <c r="E654" t="s">
         <v>696</v>
@@ -12095,10 +12095,10 @@
         <v>467</v>
       </c>
       <c r="B655" t="s">
+        <v>721</v>
+      </c>
+      <c r="D655" t="s">
         <v>722</v>
-      </c>
-      <c r="D655" t="s">
-        <v>709</v>
       </c>
       <c r="E655" t="s">
         <v>696</v>
@@ -12109,10 +12109,10 @@
         <v>470</v>
       </c>
       <c r="B656" t="s">
+        <v>721</v>
+      </c>
+      <c r="D656" t="s">
         <v>722</v>
-      </c>
-      <c r="D656" t="s">
-        <v>709</v>
       </c>
       <c r="E656" t="s">
         <v>696</v>
@@ -12123,10 +12123,10 @@
         <v>468</v>
       </c>
       <c r="B657" t="s">
+        <v>721</v>
+      </c>
+      <c r="D657" t="s">
         <v>722</v>
-      </c>
-      <c r="D657" t="s">
-        <v>709</v>
       </c>
       <c r="E657" t="s">
         <v>696</v>
@@ -12137,10 +12137,10 @@
         <v>471</v>
       </c>
       <c r="B658" t="s">
+        <v>721</v>
+      </c>
+      <c r="D658" t="s">
         <v>722</v>
-      </c>
-      <c r="D658" t="s">
-        <v>709</v>
       </c>
       <c r="E658" t="s">
         <v>696</v>
@@ -12151,10 +12151,10 @@
         <v>472</v>
       </c>
       <c r="B659" t="s">
+        <v>721</v>
+      </c>
+      <c r="D659" t="s">
         <v>722</v>
-      </c>
-      <c r="D659" t="s">
-        <v>709</v>
       </c>
       <c r="E659" t="s">
         <v>696</v>
@@ -12165,10 +12165,10 @@
         <v>458</v>
       </c>
       <c r="B660" t="s">
+        <v>721</v>
+      </c>
+      <c r="D660" t="s">
         <v>722</v>
-      </c>
-      <c r="D660" t="s">
-        <v>709</v>
       </c>
       <c r="E660" t="s">
         <v>696</v>
@@ -12179,10 +12179,10 @@
         <v>457</v>
       </c>
       <c r="B661" t="s">
+        <v>721</v>
+      </c>
+      <c r="D661" t="s">
         <v>722</v>
-      </c>
-      <c r="D661" t="s">
-        <v>709</v>
       </c>
       <c r="E661" t="s">
         <v>696</v>
@@ -12193,10 +12193,10 @@
         <v>459</v>
       </c>
       <c r="B662" t="s">
+        <v>721</v>
+      </c>
+      <c r="D662" t="s">
         <v>722</v>
-      </c>
-      <c r="D662" t="s">
-        <v>709</v>
       </c>
       <c r="E662" t="s">
         <v>696</v>
@@ -12372,10 +12372,10 @@
         <v>521</v>
       </c>
       <c r="B678" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.2">
@@ -12383,10 +12383,10 @@
         <v>33</v>
       </c>
       <c r="B679" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E679" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.2">
@@ -12397,7 +12397,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.2">
@@ -12408,7 +12408,7 @@
         <v>679</v>
       </c>
       <c r="E681" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.2">
@@ -12419,7 +12419,7 @@
         <v>688</v>
       </c>
       <c r="E682" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.2">
@@ -12430,7 +12430,7 @@
         <v>688</v>
       </c>
       <c r="E683" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.2">
@@ -12441,7 +12441,7 @@
         <v>688</v>
       </c>
       <c r="E684" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.2">
@@ -12452,7 +12452,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -12465,37 +12465,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC890FB-CFE6-CF4F-82CD-58B34B69E495}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
